--- a/data/T=2.xlsx
+++ b/data/T=2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goood\Documents\wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4A012-DDBB-4FF8-9B2F-7E32D267C445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3A26FE-88FF-4BA0-9C62-9EC8344EE3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T=2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -173,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'T=2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,10 +206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$121</c:f>
+              <c:f>'T=2'!$A$2:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -569,375 +569,381 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$121</c:f>
+              <c:f>'T=2'!$C$2:$C$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
+                <c:ptCount val="121"/>
                 <c:pt idx="0">
-                  <c:v>3.3240252087923347E-2</c:v>
+                  <c:v>8.1622609673790772E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.77555464466875E-2</c:v>
+                  <c:v>9.5455701965825701E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1111595019726388E-2</c:v>
+                  <c:v>9.6406475976217265E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4326740790080442E-2</c:v>
+                  <c:v>0.1005108736407949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4525285648409081E-2</c:v>
+                  <c:v>0.1028811130751513</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6350617410462668E-2</c:v>
+                  <c:v>0.10333976110129089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0327919249884723E-2</c:v>
+                  <c:v>0.1094294016819326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1845826715171392E-2</c:v>
+                  <c:v>0.1171594622100809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3600707075882562E-2</c:v>
+                  <c:v>0.12531804060206761</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7526771532510117E-2</c:v>
+                  <c:v>0.1342164818683379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9864477122508579E-2</c:v>
+                  <c:v>0.13984077883121751</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2106112619767381E-2</c:v>
+                  <c:v>0.14315509668434301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.34126658810268E-2</c:v>
+                  <c:v>0.1437007874015748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6109033150586666E-2</c:v>
+                  <c:v>0.14749384005570729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6768714454065681E-2</c:v>
+                  <c:v>0.15833065509668429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.100220320746016E-2</c:v>
+                  <c:v>0.15585663399217961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1597837782446078E-2</c:v>
+                  <c:v>0.16291378756226901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3487216272992775E-2</c:v>
+                  <c:v>0.16686753441534091</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.2276733104473023E-2</c:v>
+                  <c:v>0.17322165086507041</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8393195675564895E-2</c:v>
+                  <c:v>0.17240478868712841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1352154531946511E-2</c:v>
+                  <c:v>0.1785580373881836</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3222319003945278E-2</c:v>
+                  <c:v>0.17564545503240669</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.3670646103397042E-2</c:v>
+                  <c:v>0.18565201671219669</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.9114618025311274E-2</c:v>
+                  <c:v>0.19310755798382351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8064251678024286E-2</c:v>
+                  <c:v>0.19099175103112109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.8544602141722606E-2</c:v>
+                  <c:v>0.20145026514542819</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.5380693754163031E-2</c:v>
+                  <c:v>0.2024211259306872</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.0562074089255526E-2</c:v>
+                  <c:v>0.21463723284589431</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.6328585335861047E-2</c:v>
+                  <c:v>0.2093945846054957</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1377773223343747E-2</c:v>
+                  <c:v>0.2202012694841716</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.6087513449812988E-2</c:v>
+                  <c:v>0.22508235577695651</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.6606291950607169E-2</c:v>
+                  <c:v>0.22968557501740849</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.0739611620638423E-2</c:v>
+                  <c:v>0.24206907172317749</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.9497105087872116E-2</c:v>
+                  <c:v>0.2493003106754513</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.5763180816723887E-2</c:v>
+                  <c:v>0.25284897423536351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1324742532151463E-2</c:v>
+                  <c:v>0.26731145213991109</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.9448173387303377E-2</c:v>
+                  <c:v>0.26632050457978468</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8013526669057743E-2</c:v>
+                  <c:v>0.26926991268948519</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.3171593994978728E-2</c:v>
+                  <c:v>0.2761328941025229</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.8694727673310449E-2</c:v>
+                  <c:v>0.29131849590229791</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.3654250140902802E-2</c:v>
+                  <c:v>0.29801073972896253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2539837065122717E-2</c:v>
+                  <c:v>0.2969561840484225</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.9862683814110768E-2</c:v>
+                  <c:v>0.30406355455568052</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.5078393195675572E-2</c:v>
+                  <c:v>0.3049440248540361</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.670748578162627E-2</c:v>
+                  <c:v>0.31364159837163208</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7975611005789821E-2</c:v>
+                  <c:v>0.31878716053350481</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6521750268996259E-2</c:v>
+                  <c:v>0.31824481761208417</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7354357739406671E-2</c:v>
+                  <c:v>0.32239273662220802</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.823410360198801E-2</c:v>
+                  <c:v>0.33029353473672929</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.6869908285084799E-2</c:v>
+                  <c:v>0.33851906904494078</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6460009222728899E-2</c:v>
+                  <c:v>0.33270059992500939</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7862632576727981E-2</c:v>
+                  <c:v>0.34734051100755259</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.389814008300456E-2</c:v>
+                  <c:v>0.34950653489742362</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.469231951631911E-2</c:v>
+                  <c:v>0.35616864856178693</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.498693446738741E-2</c:v>
+                  <c:v>0.354973485457175</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.630629707434544E-2</c:v>
+                  <c:v>0.35653021050940059</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.337936158221038E-2</c:v>
+                  <c:v>0.36495661256628642</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3424194292155561E-2</c:v>
+                  <c:v>0.35762828753548659</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2649228877388939E-2</c:v>
+                  <c:v>0.36685816058706949</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2207306450786491E-2</c:v>
+                  <c:v>0.37101612298462688</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.7359737664600094E-3</c:v>
+                  <c:v>0.3753013016230114</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.9921606804324438E-3</c:v>
+                  <c:v>0.37548208259681831</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.178767228569965E-3</c:v>
+                  <c:v>0.3737445765707858</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.0049700261310654E-3</c:v>
+                  <c:v>0.37772175799453639</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.7176307834195832E-3</c:v>
+                  <c:v>0.37895374685307193</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.5246195624327503E-3</c:v>
+                  <c:v>0.37790253896834319</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.6334990008710352E-3</c:v>
+                  <c:v>0.37899392040280683</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.4340831070348925E-3</c:v>
+                  <c:v>0.38864226793079443</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.8401906030639958E-3</c:v>
+                  <c:v>0.38671058974771011</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.6655223651175891E-3</c:v>
+                  <c:v>0.38315857839198669</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.8760055336373411E-3</c:v>
+                  <c:v>0.39745366650597252</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.5318952707895681E-3</c:v>
+                  <c:v>0.39388156837538157</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.02592611569401E-3</c:v>
+                  <c:v>0.39247214633885052</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6856074191730276E-3</c:v>
+                  <c:v>0.38933860945953191</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.5182148895834395E-3</c:v>
+                  <c:v>0.39682093309764849</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.7432494748168263E-3</c:v>
+                  <c:v>0.40950573142642882</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.7697392017215764E-3</c:v>
+                  <c:v>0.39778844608709618</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.4934672336937026E-3</c:v>
+                  <c:v>0.39691132358455189</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.8631961879387196E-3</c:v>
+                  <c:v>0.40530424768332529</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.5190859250909474E-3</c:v>
+                  <c:v>0.4182434784937597</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.6215606906799198E-3</c:v>
+                  <c:v>0.41257566018533398</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.9930317159399491E-3</c:v>
+                  <c:v>0.39896687021265198</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.1714915202131472E-3</c:v>
+                  <c:v>0.41884942953559379</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.7880821847620034E-3</c:v>
+                  <c:v>0.42181892442016178</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.2628990111185121E-3</c:v>
+                  <c:v>0.41692109914832082</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.0122457344878831E-3</c:v>
+                  <c:v>0.41506976806470619</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.2803709586514321E-3</c:v>
+                  <c:v>0.42298395736247257</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.2500896654198914E-3</c:v>
+                  <c:v>0.43068388772831973</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.4998719065430134E-3</c:v>
+                  <c:v>0.42627818844073062</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.9161756417482198E-3</c:v>
+                  <c:v>0.41480194439980722</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.2419429215555675E-3</c:v>
+                  <c:v>0.42095184530505109</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.4678485422964586E-3</c:v>
+                  <c:v>0.4269644865820344</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.5840036890915613E-3</c:v>
+                  <c:v>0.42934811719963578</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.6663934006250961E-3</c:v>
+                  <c:v>0.42954563715249883</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.6591176922682783E-3</c:v>
+                  <c:v>0.43470793829342758</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.9738176973920168E-3</c:v>
+                  <c:v>0.43858803363865229</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6480504175846699E-3</c:v>
+                  <c:v>0.4304930633670791</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.9939027514474561E-3</c:v>
+                  <c:v>0.42215370400128549</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.0891018086796124E-3</c:v>
+                  <c:v>0.4243230756869677</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.6160270533381152E-3</c:v>
+                  <c:v>0.4334089935186673</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.6864784546805346E-3</c:v>
+                  <c:v>0.43300056242969631</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.4870625608443918E-3</c:v>
+                  <c:v>0.42489220097487812</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.5502382538299952E-3</c:v>
+                  <c:v>0.42301743532058489</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7.1412102269816057E-3</c:v>
+                  <c:v>0.43487198028817831</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6.942665368652969E-3</c:v>
+                  <c:v>0.43225065616797897</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.6279653635292306E-3</c:v>
+                  <c:v>0.4237472548074348</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.5566429266793059E-3</c:v>
+                  <c:v>0.43381742460763828</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.5575139621868112E-3</c:v>
+                  <c:v>0.43380068562858209</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.0835681713378078E-3</c:v>
+                  <c:v>0.42873212277036798</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>8.178767228569965E-3</c:v>
+                  <c:v>0.42204657453532601</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>9.5365578726238666E-3</c:v>
+                  <c:v>0.43728239327226948</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.5575139621868112E-3</c:v>
+                  <c:v>0.44004432481654082</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.640774709227853E-3</c:v>
+                  <c:v>0.4311726659167604</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.9610083516933952E-3</c:v>
+                  <c:v>0.41826021747281589</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>9.3700363785417847E-3</c:v>
+                  <c:v>0.43255530558680172</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.9546036788440844E-3</c:v>
+                  <c:v>0.4448986287428357</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8.4349541425423995E-3</c:v>
+                  <c:v>0.44156087631903163</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8.7423784393093201E-3</c:v>
+                  <c:v>0.43014824039852162</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.3572270328431632E-3</c:v>
+                  <c:v>0.44388759440784192</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.2492186299123835E-3</c:v>
+                  <c:v>0.44301716749692011</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.43636509721999028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +951,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C66-4C61-803A-342ECE7C8DDB}"/>
+              <c16:uniqueId val="{00000000-9C0B-4E94-9AB6-471358CB6616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,11 +963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1273156911"/>
-        <c:axId val="1273155471"/>
+        <c:axId val="718749087"/>
+        <c:axId val="718749567"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1273156911"/>
+        <c:axId val="718749087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +1024,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273155471"/>
+        <c:crossAx val="718749567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1273155471"/>
+        <c:axId val="718749567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1086,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1273156911"/>
+        <c:crossAx val="718749087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1727,27 +1733,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E188CED8-ECCA-B181-DDD5-6BB2FCAA7534}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05962A9-A1FA-48CB-A3E8-7FBEF5A6E659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2049,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2076,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5190</v>
+        <v>24381</v>
       </c>
       <c r="C2">
-        <v>3.3240252087923347E-2</v>
+        <v>8.1622609673790772E-2</v>
       </c>
       <c r="D2">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2090,13 +2098,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>5895</v>
+        <v>28513</v>
       </c>
       <c r="C3">
-        <v>3.77555464466875E-2</v>
+        <v>9.5455701965825701E-2</v>
       </c>
       <c r="D3">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2104,13 +2112,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>6419</v>
+        <v>28797</v>
       </c>
       <c r="C4">
-        <v>4.1111595019726388E-2</v>
+        <v>9.6406475976217265E-2</v>
       </c>
       <c r="D4">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2118,13 +2126,13 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>6921</v>
+        <v>30023</v>
       </c>
       <c r="C5">
-        <v>4.4326740790080442E-2</v>
+        <v>0.1005108736407949</v>
       </c>
       <c r="D5">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2132,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>6952</v>
+        <v>30731</v>
       </c>
       <c r="C6">
-        <v>4.4525285648409081E-2</v>
+        <v>0.1028811130751513</v>
       </c>
       <c r="D6">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2146,13 +2154,13 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>7237</v>
+        <v>30868</v>
       </c>
       <c r="C7">
-        <v>4.6350617410462668E-2</v>
+        <v>0.10333976110129089</v>
       </c>
       <c r="D7">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2160,13 +2168,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>7858</v>
+        <v>32687</v>
       </c>
       <c r="C8">
-        <v>5.0327919249884723E-2</v>
+        <v>0.1094294016819326</v>
       </c>
       <c r="D8">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2174,13 +2182,13 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>8095</v>
+        <v>34996</v>
       </c>
       <c r="C9">
-        <v>5.1845826715171392E-2</v>
+        <v>0.1171594622100809</v>
       </c>
       <c r="D9">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2188,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>8369</v>
+        <v>37433</v>
       </c>
       <c r="C10">
-        <v>5.3600707075882562E-2</v>
+        <v>0.12531804060206761</v>
       </c>
       <c r="D10">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2202,13 +2210,13 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>8982</v>
+        <v>40091</v>
       </c>
       <c r="C11">
-        <v>5.7526771532510117E-2</v>
+        <v>0.1342164818683379</v>
       </c>
       <c r="D11">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2216,13 +2224,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>9347</v>
+        <v>41771</v>
       </c>
       <c r="C12">
-        <v>5.9864477122508579E-2</v>
+        <v>0.13984077883121751</v>
       </c>
       <c r="D12">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2230,13 +2238,13 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>9697</v>
+        <v>42761</v>
       </c>
       <c r="C13">
-        <v>6.2106112619767381E-2</v>
+        <v>0.14315509668434301</v>
       </c>
       <c r="D13">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2244,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>9901</v>
+        <v>42924</v>
       </c>
       <c r="C14">
-        <v>6.34126658810268E-2</v>
+        <v>0.1437007874015748</v>
       </c>
       <c r="D14">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2258,13 +2266,13 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>10322</v>
+        <v>44057</v>
       </c>
       <c r="C15">
-        <v>6.6109033150586666E-2</v>
+        <v>0.14749384005570729</v>
       </c>
       <c r="D15">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2272,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>10425</v>
+        <v>47294</v>
       </c>
       <c r="C16">
-        <v>6.6768714454065681E-2</v>
+        <v>0.15833065509668429</v>
       </c>
       <c r="D16">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2286,13 +2294,13 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>11086</v>
+        <v>46555</v>
       </c>
       <c r="C17">
-        <v>7.100220320746016E-2</v>
+        <v>0.15585663399217961</v>
       </c>
       <c r="D17">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2300,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>11179</v>
+        <v>48663</v>
       </c>
       <c r="C18">
-        <v>7.1597837782446078E-2</v>
+        <v>0.16291378756226901</v>
       </c>
       <c r="D18">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2314,13 +2322,13 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>11474</v>
+        <v>49844</v>
       </c>
       <c r="C19">
-        <v>7.3487216272992775E-2</v>
+        <v>0.16686753441534091</v>
       </c>
       <c r="D19">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2328,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>11285</v>
+        <v>51742</v>
       </c>
       <c r="C20">
-        <v>7.2276733104473023E-2</v>
+        <v>0.17322165086507041</v>
       </c>
       <c r="D20">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2342,13 +2350,13 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>12240</v>
+        <v>51498</v>
       </c>
       <c r="C21">
-        <v>7.8393195675564895E-2</v>
+        <v>0.17240478868712841</v>
       </c>
       <c r="D21">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2356,13 +2364,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>12702</v>
+        <v>53336</v>
       </c>
       <c r="C22">
-        <v>8.1352154531946511E-2</v>
+        <v>0.1785580373881836</v>
       </c>
       <c r="D22">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2370,13 +2378,13 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>12994</v>
+        <v>52466</v>
       </c>
       <c r="C23">
-        <v>8.3222319003945278E-2</v>
+        <v>0.17564545503240669</v>
       </c>
       <c r="D23">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2384,13 +2392,13 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>13064</v>
+        <v>55455</v>
       </c>
       <c r="C24">
-        <v>8.3670646103397042E-2</v>
+        <v>0.18565201671219669</v>
       </c>
       <c r="D24">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2398,13 +2406,13 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>13914</v>
+        <v>57682</v>
       </c>
       <c r="C25">
-        <v>8.9114618025311274E-2</v>
+        <v>0.19310755798382351</v>
       </c>
       <c r="D25">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2412,13 +2420,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>13750</v>
+        <v>57050</v>
       </c>
       <c r="C26">
-        <v>8.8064251678024286E-2</v>
+        <v>0.19099175103112109</v>
       </c>
       <c r="D26">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2426,13 +2434,13 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>13825</v>
+        <v>60174</v>
       </c>
       <c r="C27">
-        <v>8.8544602141722606E-2</v>
+        <v>0.20145026514542819</v>
       </c>
       <c r="D27">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2440,13 +2448,13 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>13331</v>
+        <v>60464</v>
       </c>
       <c r="C28">
-        <v>8.5380693754163031E-2</v>
+        <v>0.2024211259306872</v>
       </c>
       <c r="D28">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2454,13 +2462,13 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>14140</v>
+        <v>64113</v>
       </c>
       <c r="C29">
-        <v>9.0562074089255526E-2</v>
+        <v>0.21463723284589431</v>
       </c>
       <c r="D29">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2468,13 +2476,13 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>13479</v>
+        <v>62547</v>
       </c>
       <c r="C30">
-        <v>8.6328585335861047E-2</v>
+        <v>0.2093945846054957</v>
       </c>
       <c r="D30">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2482,13 +2490,13 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>12706</v>
+        <v>65775</v>
       </c>
       <c r="C31">
-        <v>8.1377773223343747E-2</v>
+        <v>0.2202012694841716</v>
       </c>
       <c r="D31">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2496,13 +2504,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>11880</v>
+        <v>67233</v>
       </c>
       <c r="C32">
-        <v>7.6087513449812988E-2</v>
+        <v>0.22508235577695651</v>
       </c>
       <c r="D32">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2510,13 +2518,13 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>11961</v>
+        <v>68608</v>
       </c>
       <c r="C33">
-        <v>7.6606291950607169E-2</v>
+        <v>0.22968557501740849</v>
       </c>
       <c r="D33">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2524,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>11045</v>
+        <v>72307</v>
       </c>
       <c r="C34">
-        <v>7.0739611620638423E-2</v>
+        <v>0.24206907172317749</v>
       </c>
       <c r="D34">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2538,13 +2546,13 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>10851</v>
+        <v>74467</v>
       </c>
       <c r="C35">
-        <v>6.9497105087872116E-2</v>
+        <v>0.2493003106754513</v>
       </c>
       <c r="D35">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2552,13 +2560,13 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>10268</v>
+        <v>75527</v>
       </c>
       <c r="C36">
-        <v>6.5763180816723887E-2</v>
+        <v>0.25284897423536351</v>
       </c>
       <c r="D36">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2566,13 +2574,13 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>9575</v>
+        <v>79847</v>
       </c>
       <c r="C37">
-        <v>6.1324742532151463E-2</v>
+        <v>0.26731145213991109</v>
       </c>
       <c r="D37">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2580,13 +2588,13 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>9282</v>
+        <v>79551</v>
       </c>
       <c r="C38">
-        <v>5.9448173387303377E-2</v>
+        <v>0.26632050457978468</v>
       </c>
       <c r="D38">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2594,13 +2602,13 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>9058</v>
+        <v>80432</v>
       </c>
       <c r="C39">
-        <v>5.8013526669057743E-2</v>
+        <v>0.26926991268948519</v>
       </c>
       <c r="D39">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2608,13 +2616,13 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>8302</v>
+        <v>82482</v>
       </c>
       <c r="C40">
-        <v>5.3171593994978728E-2</v>
+        <v>0.2761328941025229</v>
       </c>
       <c r="D40">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2622,13 +2630,13 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>7603</v>
+        <v>87018</v>
       </c>
       <c r="C41">
-        <v>4.8694727673310449E-2</v>
+        <v>0.29131849590229791</v>
       </c>
       <c r="D41">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2636,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>6816</v>
+        <v>89017</v>
       </c>
       <c r="C42">
-        <v>4.3654250140902802E-2</v>
+        <v>0.29801073972896253</v>
       </c>
       <c r="D42">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2650,13 +2658,13 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>6642</v>
+        <v>88702</v>
       </c>
       <c r="C43">
-        <v>4.2539837065122717E-2</v>
+        <v>0.2969561840484225</v>
       </c>
       <c r="D43">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2664,13 +2672,13 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>6224</v>
+        <v>90825</v>
       </c>
       <c r="C44">
-        <v>3.9862683814110768E-2</v>
+        <v>0.30406355455568052</v>
       </c>
       <c r="D44">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2678,13 +2686,13 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>5477</v>
+        <v>91088</v>
       </c>
       <c r="C45">
-        <v>3.5078393195675572E-2</v>
+        <v>0.3049440248540361</v>
       </c>
       <c r="D45">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2692,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>4170</v>
+        <v>93686</v>
       </c>
       <c r="C46">
-        <v>2.670748578162627E-2</v>
+        <v>0.31364159837163208</v>
       </c>
       <c r="D46">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2706,13 +2714,13 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>4368</v>
+        <v>95223</v>
       </c>
       <c r="C47">
-        <v>2.7975611005789821E-2</v>
+        <v>0.31878716053350481</v>
       </c>
       <c r="D47">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2720,13 +2728,13 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>4141</v>
+        <v>95061</v>
       </c>
       <c r="C48">
-        <v>2.6521750268996259E-2</v>
+        <v>0.31824481761208417</v>
       </c>
       <c r="D48">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2734,13 +2742,13 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>4271</v>
+        <v>96300</v>
       </c>
       <c r="C49">
-        <v>2.7354357739406671E-2</v>
+        <v>0.32239273662220802</v>
       </c>
       <c r="D49">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2748,13 +2756,13 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>2847</v>
+        <v>98660</v>
       </c>
       <c r="C50">
-        <v>1.823410360198801E-2</v>
+        <v>0.33029353473672929</v>
       </c>
       <c r="D50">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2762,13 +2770,13 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>2634</v>
+        <v>101117</v>
       </c>
       <c r="C51">
-        <v>1.6869908285084799E-2</v>
+        <v>0.33851906904494078</v>
       </c>
       <c r="D51">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2776,13 +2784,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>2570</v>
+        <v>99379</v>
       </c>
       <c r="C52">
-        <v>1.6460009222728899E-2</v>
+        <v>0.33270059992500939</v>
       </c>
       <c r="D52">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2790,13 +2798,13 @@
         <v>25.5</v>
       </c>
       <c r="B53">
-        <v>2789</v>
+        <v>103752</v>
       </c>
       <c r="C53">
-        <v>1.7862632576727981E-2</v>
+        <v>0.34734051100755259</v>
       </c>
       <c r="D53">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2804,13 +2812,13 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>2170</v>
+        <v>104399</v>
       </c>
       <c r="C54">
-        <v>1.389814008300456E-2</v>
+        <v>0.34950653489742362</v>
       </c>
       <c r="D54">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2818,13 +2826,13 @@
         <v>26.5</v>
       </c>
       <c r="B55">
-        <v>2294</v>
+        <v>106389</v>
       </c>
       <c r="C55">
-        <v>1.469231951631911E-2</v>
+        <v>0.35616864856178693</v>
       </c>
       <c r="D55">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2832,13 +2840,13 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>2340</v>
+        <v>106032</v>
       </c>
       <c r="C56">
-        <v>1.498693446738741E-2</v>
+        <v>0.354973485457175</v>
       </c>
       <c r="D56">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2846,13 +2854,13 @@
         <v>27.5</v>
       </c>
       <c r="B57">
-        <v>2546</v>
+        <v>106497</v>
       </c>
       <c r="C57">
-        <v>1.630629707434544E-2</v>
+        <v>0.35653021050940059</v>
       </c>
       <c r="D57">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2860,13 +2868,13 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>2089</v>
+        <v>109014</v>
       </c>
       <c r="C58">
-        <v>1.337936158221038E-2</v>
+        <v>0.36495661256628642</v>
       </c>
       <c r="D58">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2874,13 +2882,13 @@
         <v>28.5</v>
       </c>
       <c r="B59">
-        <v>2096</v>
+        <v>106825</v>
       </c>
       <c r="C59">
-        <v>1.3424194292155561E-2</v>
+        <v>0.35762828753548659</v>
       </c>
       <c r="D59">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2888,13 +2896,13 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>1975</v>
+        <v>109582</v>
       </c>
       <c r="C60">
-        <v>1.2649228877388939E-2</v>
+        <v>0.36685816058706949</v>
       </c>
       <c r="D60">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2902,13 +2910,13 @@
         <v>29.5</v>
       </c>
       <c r="B61">
-        <v>1906</v>
+        <v>110824</v>
       </c>
       <c r="C61">
-        <v>1.2207306450786491E-2</v>
+        <v>0.37101612298462688</v>
       </c>
       <c r="D61">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2916,13 +2924,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>1364</v>
+        <v>112104</v>
       </c>
       <c r="C62">
-        <v>8.7359737664600094E-3</v>
+        <v>0.3753013016230114</v>
       </c>
       <c r="D62">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2930,13 +2938,13 @@
         <v>30.5</v>
       </c>
       <c r="B63">
-        <v>1404</v>
+        <v>112158</v>
       </c>
       <c r="C63">
-        <v>8.9921606804324438E-3</v>
+        <v>0.37548208259681831</v>
       </c>
       <c r="D63">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2944,13 +2952,13 @@
         <v>31</v>
       </c>
       <c r="B64">
-        <v>1277</v>
+        <v>111639</v>
       </c>
       <c r="C64">
-        <v>8.178767228569965E-3</v>
+        <v>0.3737445765707858</v>
       </c>
       <c r="D64">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2958,13 +2966,13 @@
         <v>31.5</v>
       </c>
       <c r="B65">
-        <v>1406</v>
+        <v>112827</v>
       </c>
       <c r="C65">
-        <v>9.0049700261310654E-3</v>
+        <v>0.37772175799453639</v>
       </c>
       <c r="D65">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2972,13 +2980,13 @@
         <v>32</v>
       </c>
       <c r="B66">
-        <v>1205</v>
+        <v>113195</v>
       </c>
       <c r="C66">
-        <v>7.7176307834195832E-3</v>
+        <v>0.37895374685307193</v>
       </c>
       <c r="D66">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2986,13 +2994,13 @@
         <v>32.5</v>
       </c>
       <c r="B67">
-        <v>1331</v>
+        <v>112881</v>
       </c>
       <c r="C67">
-        <v>8.5246195624327503E-3</v>
+        <v>0.37790253896834319</v>
       </c>
       <c r="D67">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3000,13 +3008,13 @@
         <v>33</v>
       </c>
       <c r="B68">
-        <v>1348</v>
+        <v>113207</v>
       </c>
       <c r="C68">
-        <v>8.6334990008710352E-3</v>
+        <v>0.37899392040280683</v>
       </c>
       <c r="D68">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3014,13 +3022,13 @@
         <v>33.5</v>
       </c>
       <c r="B69">
-        <v>1473</v>
+        <v>116089</v>
       </c>
       <c r="C69">
-        <v>9.4340831070348925E-3</v>
+        <v>0.38864226793079443</v>
       </c>
       <c r="D69">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3028,13 +3036,13 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>1068</v>
+        <v>115512</v>
       </c>
       <c r="C70">
-        <v>6.8401906030639958E-3</v>
+        <v>0.38671058974771011</v>
       </c>
       <c r="D70">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3042,13 +3050,13 @@
         <v>34.5</v>
       </c>
       <c r="B71">
-        <v>1353</v>
+        <v>114451</v>
       </c>
       <c r="C71">
-        <v>8.6655223651175891E-3</v>
+        <v>0.38315857839198669</v>
       </c>
       <c r="D71">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3056,13 +3064,13 @@
         <v>35</v>
       </c>
       <c r="B72">
-        <v>1542</v>
+        <v>118721</v>
       </c>
       <c r="C72">
-        <v>9.8760055336373411E-3</v>
+        <v>0.39745366650597252</v>
       </c>
       <c r="D72">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3070,13 +3078,13 @@
         <v>35.5</v>
       </c>
       <c r="B73">
-        <v>1176</v>
+        <v>117654</v>
       </c>
       <c r="C73">
-        <v>7.5318952707895681E-3</v>
+        <v>0.39388156837538157</v>
       </c>
       <c r="D73">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3084,13 +3092,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>1097</v>
+        <v>117233</v>
       </c>
       <c r="C74">
-        <v>7.02592611569401E-3</v>
+        <v>0.39247214633885052</v>
       </c>
       <c r="D74">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3098,13 +3106,13 @@
         <v>36.5</v>
       </c>
       <c r="B75">
-        <v>1200</v>
+        <v>116297</v>
       </c>
       <c r="C75">
-        <v>7.6856074191730276E-3</v>
+        <v>0.38933860945953191</v>
       </c>
       <c r="D75">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3112,13 +3120,13 @@
         <v>37</v>
       </c>
       <c r="B76">
-        <v>1330</v>
+        <v>118532</v>
       </c>
       <c r="C76">
-        <v>8.5182148895834395E-3</v>
+        <v>0.39682093309764849</v>
       </c>
       <c r="D76">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3126,13 +3134,13 @@
         <v>37.5</v>
       </c>
       <c r="B77">
-        <v>1209</v>
+        <v>122321</v>
       </c>
       <c r="C77">
-        <v>7.7432494748168263E-3</v>
+        <v>0.40950573142642882</v>
       </c>
       <c r="D77">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3140,13 +3148,13 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>1057</v>
+        <v>118821</v>
       </c>
       <c r="C78">
-        <v>6.7697392017215764E-3</v>
+        <v>0.39778844608709618</v>
       </c>
       <c r="D78">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3154,13 +3162,13 @@
         <v>38.5</v>
       </c>
       <c r="B79">
-        <v>1170</v>
+        <v>118559</v>
       </c>
       <c r="C79">
-        <v>7.4934672336937026E-3</v>
+        <v>0.39691132358455189</v>
       </c>
       <c r="D79">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3168,13 +3176,13 @@
         <v>39</v>
       </c>
       <c r="B80">
-        <v>1540</v>
+        <v>121066</v>
       </c>
       <c r="C80">
-        <v>9.8631961879387196E-3</v>
+        <v>0.40530424768332529</v>
       </c>
       <c r="D80">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3182,13 +3190,13 @@
         <v>39.5</v>
       </c>
       <c r="B81">
-        <v>1174</v>
+        <v>124931</v>
       </c>
       <c r="C81">
-        <v>7.5190859250909474E-3</v>
+        <v>0.4182434784937597</v>
       </c>
       <c r="D81">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3196,13 +3204,13 @@
         <v>40</v>
       </c>
       <c r="B82">
-        <v>1190</v>
+        <v>123238</v>
       </c>
       <c r="C82">
-        <v>7.6215606906799198E-3</v>
+        <v>0.41257566018533398</v>
       </c>
       <c r="D82">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3210,13 +3218,13 @@
         <v>40.5</v>
       </c>
       <c r="B83">
-        <v>1248</v>
+        <v>119173</v>
       </c>
       <c r="C83">
-        <v>7.9930317159399491E-3</v>
+        <v>0.39896687021265198</v>
       </c>
       <c r="D83">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3224,13 +3232,13 @@
         <v>41</v>
       </c>
       <c r="B84">
-        <v>1432</v>
+        <v>125112</v>
       </c>
       <c r="C84">
-        <v>9.1714915202131472E-3</v>
+        <v>0.41884942953559379</v>
       </c>
       <c r="D84">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3238,13 +3246,13 @@
         <v>41.5</v>
       </c>
       <c r="B85">
-        <v>1216</v>
+        <v>125999</v>
       </c>
       <c r="C85">
-        <v>7.7880821847620034E-3</v>
+        <v>0.42181892442016178</v>
       </c>
       <c r="D85">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3252,13 +3260,13 @@
         <v>42</v>
       </c>
       <c r="B86">
-        <v>1134</v>
+        <v>124536</v>
       </c>
       <c r="C86">
-        <v>7.2628990111185121E-3</v>
+        <v>0.41692109914832082</v>
       </c>
       <c r="D86">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3266,13 +3274,13 @@
         <v>42.5</v>
       </c>
       <c r="B87">
-        <v>1251</v>
+        <v>123983</v>
       </c>
       <c r="C87">
-        <v>8.0122457344878831E-3</v>
+        <v>0.41506976806470619</v>
       </c>
       <c r="D87">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3280,13 +3288,13 @@
         <v>43</v>
       </c>
       <c r="B88">
-        <v>1449</v>
+        <v>126347</v>
       </c>
       <c r="C88">
-        <v>9.2803709586514321E-3</v>
+        <v>0.42298395736247257</v>
       </c>
       <c r="D88">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3294,13 +3302,13 @@
         <v>43.5</v>
       </c>
       <c r="B89">
-        <v>1132</v>
+        <v>128647</v>
       </c>
       <c r="C89">
-        <v>7.2500896654198914E-3</v>
+        <v>0.43068388772831973</v>
       </c>
       <c r="D89">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3308,13 +3316,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>1171</v>
+        <v>127331</v>
       </c>
       <c r="C90">
-        <v>7.4998719065430134E-3</v>
+        <v>0.42627818844073062</v>
       </c>
       <c r="D90">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3322,13 +3330,13 @@
         <v>44.5</v>
       </c>
       <c r="B91">
-        <v>1236</v>
+        <v>123903</v>
       </c>
       <c r="C91">
-        <v>7.9161756417482198E-3</v>
+        <v>0.41480194439980722</v>
       </c>
       <c r="D91">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3336,13 +3344,13 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>1443</v>
+        <v>125740</v>
       </c>
       <c r="C92">
-        <v>9.2419429215555675E-3</v>
+        <v>0.42095184530505109</v>
       </c>
       <c r="D92">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3350,13 +3358,13 @@
         <v>45.5</v>
       </c>
       <c r="B93">
-        <v>1166</v>
+        <v>127536</v>
       </c>
       <c r="C93">
-        <v>7.4678485422964586E-3</v>
+        <v>0.4269644865820344</v>
       </c>
       <c r="D93">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3364,13 +3372,13 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>1028</v>
+        <v>128248</v>
       </c>
       <c r="C94">
-        <v>6.5840036890915613E-3</v>
+        <v>0.42934811719963578</v>
       </c>
       <c r="D94">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3378,13 +3386,13 @@
         <v>46.5</v>
       </c>
       <c r="B95">
-        <v>1197</v>
+        <v>128307</v>
       </c>
       <c r="C95">
-        <v>7.6663934006250961E-3</v>
+        <v>0.42954563715249883</v>
       </c>
       <c r="D95">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3392,13 +3400,13 @@
         <v>47</v>
       </c>
       <c r="B96">
-        <v>1352</v>
+        <v>129849</v>
       </c>
       <c r="C96">
-        <v>8.6591176922682783E-3</v>
+        <v>0.43470793829342758</v>
       </c>
       <c r="D96">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3406,13 +3414,13 @@
         <v>47.5</v>
       </c>
       <c r="B97">
-        <v>1245</v>
+        <v>131008</v>
       </c>
       <c r="C97">
-        <v>7.9738176973920168E-3</v>
+        <v>0.43858803363865229</v>
       </c>
       <c r="D97">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3420,13 +3428,13 @@
         <v>48</v>
       </c>
       <c r="B98">
-        <v>1038</v>
+        <v>128590</v>
       </c>
       <c r="C98">
-        <v>6.6480504175846699E-3</v>
+        <v>0.4304930633670791</v>
       </c>
       <c r="D98">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3434,13 +3442,13 @@
         <v>48.5</v>
       </c>
       <c r="B99">
-        <v>1092</v>
+        <v>126099</v>
       </c>
       <c r="C99">
-        <v>6.9939027514474561E-3</v>
+        <v>0.42215370400128549</v>
       </c>
       <c r="D99">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3448,13 +3456,13 @@
         <v>49</v>
       </c>
       <c r="B100">
-        <v>1263</v>
+        <v>126747</v>
       </c>
       <c r="C100">
-        <v>8.0891018086796124E-3</v>
+        <v>0.4243230756869677</v>
       </c>
       <c r="D100">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3462,13 +3470,13 @@
         <v>49.5</v>
       </c>
       <c r="B101">
-        <v>1033</v>
+        <v>129461</v>
       </c>
       <c r="C101">
-        <v>6.6160270533381152E-3</v>
+        <v>0.4334089935186673</v>
       </c>
       <c r="D101">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3476,13 +3484,13 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>1044</v>
+        <v>129339</v>
       </c>
       <c r="C102">
-        <v>6.6864784546805346E-3</v>
+        <v>0.43300056242969631</v>
       </c>
       <c r="D102">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3490,13 +3498,13 @@
         <v>50.5</v>
       </c>
       <c r="B103">
-        <v>1169</v>
+        <v>126917</v>
       </c>
       <c r="C103">
-        <v>7.4870625608443918E-3</v>
+        <v>0.42489220097487812</v>
       </c>
       <c r="D103">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3504,13 +3512,13 @@
         <v>51</v>
       </c>
       <c r="B104">
-        <v>1335</v>
+        <v>126357</v>
       </c>
       <c r="C104">
-        <v>8.5502382538299952E-3</v>
+        <v>0.42301743532058489</v>
       </c>
       <c r="D104">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3518,13 +3526,13 @@
         <v>51.5</v>
       </c>
       <c r="B105">
-        <v>1115</v>
+        <v>129898</v>
       </c>
       <c r="C105">
-        <v>7.1412102269816057E-3</v>
+        <v>0.43487198028817831</v>
       </c>
       <c r="D105">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3532,13 +3540,13 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>1084</v>
+        <v>129115</v>
       </c>
       <c r="C106">
-        <v>6.942665368652969E-3</v>
+        <v>0.43225065616797897</v>
       </c>
       <c r="D106">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3546,13 +3554,13 @@
         <v>52.5</v>
       </c>
       <c r="B107">
-        <v>1191</v>
+        <v>126575</v>
       </c>
       <c r="C107">
-        <v>7.6279653635292306E-3</v>
+        <v>0.4237472548074348</v>
       </c>
       <c r="D107">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3560,13 +3568,13 @@
         <v>53</v>
       </c>
       <c r="B108">
-        <v>1336</v>
+        <v>129583</v>
       </c>
       <c r="C108">
-        <v>8.5566429266793059E-3</v>
+        <v>0.43381742460763828</v>
       </c>
       <c r="D108">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3574,13 +3582,13 @@
         <v>53.5</v>
       </c>
       <c r="B109">
-        <v>1180</v>
+        <v>129578</v>
       </c>
       <c r="C109">
-        <v>7.5575139621868112E-3</v>
+        <v>0.43380068562858209</v>
       </c>
       <c r="D109">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3588,13 +3596,13 @@
         <v>54</v>
       </c>
       <c r="B110">
-        <v>1106</v>
+        <v>128064</v>
       </c>
       <c r="C110">
-        <v>7.0835681713378078E-3</v>
+        <v>0.42873212277036798</v>
       </c>
       <c r="D110">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3602,13 +3610,13 @@
         <v>54.5</v>
       </c>
       <c r="B111">
-        <v>1277</v>
+        <v>126067</v>
       </c>
       <c r="C111">
-        <v>8.178767228569965E-3</v>
+        <v>0.42204657453532601</v>
       </c>
       <c r="D111">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3616,13 +3624,13 @@
         <v>55</v>
       </c>
       <c r="B112">
-        <v>1489</v>
+        <v>130618</v>
       </c>
       <c r="C112">
-        <v>9.5365578726238666E-3</v>
+        <v>0.43728239327226948</v>
       </c>
       <c r="D112">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3630,13 +3638,13 @@
         <v>55.5</v>
       </c>
       <c r="B113">
-        <v>1180</v>
+        <v>131443</v>
       </c>
       <c r="C113">
-        <v>7.5575139621868112E-3</v>
+        <v>0.44004432481654082</v>
       </c>
       <c r="D113">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3644,13 +3652,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>1193</v>
+        <v>128793</v>
       </c>
       <c r="C114">
-        <v>7.640774709227853E-3</v>
+        <v>0.4311726659167604</v>
       </c>
       <c r="D114">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3658,13 +3666,13 @@
         <v>56.5</v>
       </c>
       <c r="B115">
-        <v>1243</v>
+        <v>124936</v>
       </c>
       <c r="C115">
-        <v>7.9610083516933952E-3</v>
+        <v>0.41826021747281589</v>
       </c>
       <c r="D115">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3672,13 +3680,13 @@
         <v>57</v>
       </c>
       <c r="B116">
-        <v>1463</v>
+        <v>129206</v>
       </c>
       <c r="C116">
-        <v>9.3700363785417847E-3</v>
+        <v>0.43255530558680172</v>
       </c>
       <c r="D116">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3686,13 +3694,13 @@
         <v>57.5</v>
       </c>
       <c r="B117">
-        <v>1242</v>
+        <v>132893</v>
       </c>
       <c r="C117">
-        <v>7.9546036788440844E-3</v>
+        <v>0.4448986287428357</v>
       </c>
       <c r="D117">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3700,13 +3708,13 @@
         <v>58</v>
       </c>
       <c r="B118">
-        <v>1317</v>
+        <v>131896</v>
       </c>
       <c r="C118">
-        <v>8.4349541425423995E-3</v>
+        <v>0.44156087631903163</v>
       </c>
       <c r="D118">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3714,13 +3722,13 @@
         <v>58.5</v>
       </c>
       <c r="B119">
-        <v>1365</v>
+        <v>128487</v>
       </c>
       <c r="C119">
-        <v>8.7423784393093201E-3</v>
+        <v>0.43014824039852162</v>
       </c>
       <c r="D119">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -3728,13 +3736,13 @@
         <v>59</v>
       </c>
       <c r="B120">
-        <v>1461</v>
+        <v>132591</v>
       </c>
       <c r="C120">
-        <v>9.3572270328431632E-3</v>
+        <v>0.44388759440784192</v>
       </c>
       <c r="D120">
-        <v>156136</v>
+        <v>298704</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3742,13 +3750,27 @@
         <v>59.5</v>
       </c>
       <c r="B121">
-        <v>1288</v>
+        <v>132331</v>
       </c>
       <c r="C121">
-        <v>8.2492186299123835E-3</v>
+        <v>0.44301716749692011</v>
       </c>
       <c r="D121">
-        <v>156136</v>
+        <v>298704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>60</v>
+      </c>
+      <c r="B122">
+        <v>130344</v>
+      </c>
+      <c r="C122">
+        <v>0.43636509721999028</v>
+      </c>
+      <c r="D122">
+        <v>298704</v>
       </c>
     </row>
   </sheetData>
